--- a/biology/Zoologie/Echinophyllia/Echinophyllia.xlsx
+++ b/biology/Zoologie/Echinophyllia/Echinophyllia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinophyllia est un genre de scléractiniaires (coraux durs) de la famille des Lobophylliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description etcaractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les colonies peuvent être encroûtantes, laminaires ou foliacées. Les calices sont arrondis ou ovales, immergés à tubulaires, pas très inclinés par rapport à la surface. Les septes sont nombreux, avec des columelles bien développées. Le coenostrum est parcouru de fossettes à l'insertion des nouveaux septes. Les polypes ne sont visibles que la nuit[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les colonies peuvent être encroûtantes, laminaires ou foliacées. Les calices sont arrondis ou ovales, immergés à tubulaires, pas très inclinés par rapport à la surface. Les septes sont nombreux, avec des columelles bien développées. Le coenostrum est parcouru de fossettes à l'insertion des nouveaux septes. Les polypes ne sont visibles que la nuit.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 mars 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 mars 2015) :
 Echinophyllia aspera (Ellis &amp; Solander, 1786) — Océan indien et Mer Rouge
 Echinophyllia costata Fenner &amp; Veron, 2000 — Indo-Pacifique central
 Echinophyllia echinata (Saville-Kent, 1871) — Indo-ouest-Pacifique
